--- a/documents/Dogan_Onur_AmazonReader_Planification_V1.xlsx
+++ b/documents/Dogan_Onur_AmazonReader_Planification_V1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onur/Go/src/github.com/onuroktay/amazon-reader/TPI-2017/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onur/Go/src/github.com/onuroktay/amazon-reader/tpi-2017/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-660" yWindow="-31400" windowWidth="26340" windowHeight="23760" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="1380" windowWidth="25440" windowHeight="13980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="8" r:id="rId1"/>
@@ -941,17 +941,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -973,33 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1062,7 +1062,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1117,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,7 +1172,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,7 +1227,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1625,16 +1625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:42" ht="23" x14ac:dyDescent="0.25">
@@ -1651,56 +1651,56 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="71" t="s">
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74" t="s">
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="77" t="s">
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="73"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="60"/>
     </row>
     <row r="7" spans="1:42" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
@@ -1829,10 +1829,10 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="48" t="s">
         <v>75</v>
       </c>
@@ -1881,10 +1881,10 @@
       <c r="AP8" s="11"/>
     </row>
     <row r="9" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1929,10 +1929,10 @@
       <c r="AP9" s="9"/>
     </row>
     <row r="10" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1975,10 +1975,10 @@
       <c r="AP10" s="9"/>
     </row>
     <row r="11" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2021,10 +2021,10 @@
       <c r="AP11" s="9"/>
     </row>
     <row r="12" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2067,10 +2067,10 @@
       <c r="AP12" s="9"/>
     </row>
     <row r="13" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2117,10 +2117,10 @@
       <c r="AP13" s="9"/>
     </row>
     <row r="14" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2175,10 +2175,10 @@
       <c r="AP14" s="9"/>
     </row>
     <row r="15" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2225,10 +2225,10 @@
       <c r="AP15" s="9"/>
     </row>
     <row r="16" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2271,10 +2271,10 @@
       <c r="AP16" s="9"/>
     </row>
     <row r="17" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2317,10 +2317,10 @@
       <c r="AP17" s="9"/>
     </row>
     <row r="18" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2363,10 +2363,10 @@
       <c r="AP18" s="9"/>
     </row>
     <row r="19" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2409,10 +2409,10 @@
       <c r="AP19" s="9"/>
     </row>
     <row r="20" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="8"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2456,10 +2456,10 @@
       <c r="AP20" s="9"/>
     </row>
     <row r="21" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2504,10 +2504,10 @@
       <c r="AP21" s="9"/>
     </row>
     <row r="22" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2554,10 +2554,10 @@
       <c r="AP22" s="9"/>
     </row>
     <row r="23" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="8"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2608,10 +2608,10 @@
       <c r="AP23" s="9"/>
     </row>
     <row r="24" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="8"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2655,10 +2655,10 @@
       <c r="AP24" s="9"/>
     </row>
     <row r="25" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2706,10 +2706,10 @@
       <c r="AP25" s="9"/>
     </row>
     <row r="26" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="8"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2772,10 +2772,10 @@
       <c r="AP26" s="9"/>
     </row>
     <row r="27" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="8"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2826,10 +2826,10 @@
       <c r="AP27" s="9"/>
     </row>
     <row r="28" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2880,10 +2880,10 @@
       <c r="AP28" s="9"/>
     </row>
     <row r="29" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="8"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2930,10 +2930,10 @@
       <c r="AP29" s="9"/>
     </row>
     <row r="30" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="61"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="8"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2976,10 +2976,10 @@
       <c r="AP30" s="9"/>
     </row>
     <row r="31" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="8"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3022,10 +3022,10 @@
       <c r="AP31" s="9"/>
     </row>
     <row r="32" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="8"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3068,10 +3068,10 @@
       <c r="AP32" s="9"/>
     </row>
     <row r="33" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="8"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3114,10 +3114,10 @@
       <c r="AP33" s="9"/>
     </row>
     <row r="34" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3160,10 +3160,10 @@
       <c r="AP34" s="9"/>
     </row>
     <row r="35" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3206,10 +3206,10 @@
       <c r="AP35" s="9"/>
     </row>
     <row r="36" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="8"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3252,10 +3252,10 @@
       <c r="AP36" s="9"/>
     </row>
     <row r="37" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="8"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3298,10 +3298,10 @@
       <c r="AP37" s="9"/>
     </row>
     <row r="38" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="8"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3344,10 +3344,10 @@
       <c r="AP38" s="9"/>
     </row>
     <row r="39" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="8"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3390,10 +3390,10 @@
       <c r="AP39" s="9"/>
     </row>
     <row r="40" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="41"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -3436,10 +3436,10 @@
       <c r="AP40" s="43"/>
     </row>
     <row r="41" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="41"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -3482,10 +3482,10 @@
       <c r="AP41" s="43"/>
     </row>
     <row r="42" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="41"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -3528,10 +3528,10 @@
       <c r="AP42" s="43"/>
     </row>
     <row r="43" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -3574,10 +3574,10 @@
       <c r="AP43" s="43"/>
     </row>
     <row r="44" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="41"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
@@ -3620,10 +3620,10 @@
       <c r="AP44" s="43"/>
     </row>
     <row r="45" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="61"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="41"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
@@ -3666,10 +3666,10 @@
       <c r="AP45" s="43"/>
     </row>
     <row r="46" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="41"/>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -3712,10 +3712,10 @@
       <c r="AP46" s="43"/>
     </row>
     <row r="47" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="41"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -3758,10 +3758,10 @@
       <c r="AP47" s="43"/>
     </row>
     <row r="48" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
@@ -3804,10 +3804,10 @@
       <c r="AP48" s="43"/>
     </row>
     <row r="49" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
@@ -3850,10 +3850,10 @@
       <c r="AP49" s="43"/>
     </row>
     <row r="50" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="41"/>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
@@ -3896,10 +3896,10 @@
       <c r="AP50" s="43"/>
     </row>
     <row r="51" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="41"/>
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
@@ -3942,10 +3942,10 @@
       <c r="AP51" s="43"/>
     </row>
     <row r="52" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="41"/>
       <c r="D52" s="42"/>
       <c r="E52" s="42"/>
@@ -3988,10 +3988,10 @@
       <c r="AP52" s="43"/>
     </row>
     <row r="53" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="41"/>
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
@@ -4034,10 +4034,10 @@
       <c r="AP53" s="43"/>
     </row>
     <row r="54" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="61"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="41"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
@@ -4080,10 +4080,10 @@
       <c r="AP54" s="53"/>
     </row>
     <row r="55" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="41"/>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
@@ -4126,10 +4126,10 @@
       <c r="AP55" s="43"/>
     </row>
     <row r="56" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="68"/>
+      <c r="B56" s="77"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -4173,30 +4173,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="AI6:AP6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A56:B56"/>
@@ -4213,22 +4205,30 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="AI6:AP6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.62992125984251968" bottom="0.43" header="0.23622047244094491" footer="0.17"/>
@@ -4244,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AG38" sqref="AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4257,16 +4257,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:42" ht="23" x14ac:dyDescent="0.25">
@@ -4283,56 +4283,56 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="71" t="s">
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74" t="s">
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="77" t="s">
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="73"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="60"/>
     </row>
     <row r="7" spans="1:42" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
@@ -4461,10 +4461,10 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -4507,10 +4507,10 @@
       <c r="AP8" s="11"/>
     </row>
     <row r="9" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4553,10 +4553,10 @@
       <c r="AP9" s="9"/>
     </row>
     <row r="10" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4599,10 +4599,10 @@
       <c r="AP10" s="9"/>
     </row>
     <row r="11" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -4645,10 +4645,10 @@
       <c r="AP11" s="9"/>
     </row>
     <row r="12" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4691,10 +4691,10 @@
       <c r="AP12" s="9"/>
     </row>
     <row r="13" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -4737,10 +4737,10 @@
       <c r="AP13" s="9"/>
     </row>
     <row r="14" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -4783,10 +4783,10 @@
       <c r="AP14" s="9"/>
     </row>
     <row r="15" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -4829,10 +4829,10 @@
       <c r="AP15" s="9"/>
     </row>
     <row r="16" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4875,10 +4875,10 @@
       <c r="AP16" s="9"/>
     </row>
     <row r="17" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -4921,10 +4921,10 @@
       <c r="AP17" s="9"/>
     </row>
     <row r="18" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -4967,10 +4967,10 @@
       <c r="AP18" s="9"/>
     </row>
     <row r="19" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5013,10 +5013,10 @@
       <c r="AP19" s="9"/>
     </row>
     <row r="20" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="8"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5059,10 +5059,10 @@
       <c r="AP20" s="9"/>
     </row>
     <row r="21" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -5105,10 +5105,10 @@
       <c r="AP21" s="9"/>
     </row>
     <row r="22" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -5151,10 +5151,10 @@
       <c r="AP22" s="9"/>
     </row>
     <row r="23" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="8"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -5197,10 +5197,10 @@
       <c r="AP23" s="9"/>
     </row>
     <row r="24" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="8"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -5243,10 +5243,10 @@
       <c r="AP24" s="9"/>
     </row>
     <row r="25" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="61"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -5289,10 +5289,10 @@
       <c r="AP25" s="9"/>
     </row>
     <row r="26" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="8"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -5335,10 +5335,10 @@
       <c r="AP26" s="9"/>
     </row>
     <row r="27" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="8"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -5381,10 +5381,10 @@
       <c r="AP27" s="9"/>
     </row>
     <row r="28" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -5427,10 +5427,10 @@
       <c r="AP28" s="9"/>
     </row>
     <row r="29" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="53" t="s">
         <v>75</v>
       </c>
@@ -5495,10 +5495,10 @@
       <c r="AP29" s="9"/>
     </row>
     <row r="30" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="56" t="s">
         <v>75</v>
       </c>
@@ -5543,10 +5543,10 @@
       <c r="AP30" s="9"/>
     </row>
     <row r="31" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="8"/>
       <c r="D31" s="56" t="s">
         <v>75</v>
@@ -5593,10 +5593,10 @@
       <c r="AP31" s="9"/>
     </row>
     <row r="32" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="8"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -5655,10 +5655,10 @@
       <c r="AP32" s="9"/>
     </row>
     <row r="33" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="8"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -5705,10 +5705,10 @@
       <c r="AP33" s="9"/>
     </row>
     <row r="34" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -5755,10 +5755,10 @@
       <c r="AP34" s="9"/>
     </row>
     <row r="35" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -5809,10 +5809,10 @@
       <c r="AP35" s="9"/>
     </row>
     <row r="36" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="8"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -5861,10 +5861,10 @@
       <c r="AP36" s="9"/>
     </row>
     <row r="37" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="8"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -5923,10 +5923,10 @@
       <c r="AP37" s="9"/>
     </row>
     <row r="38" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="8"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -5969,10 +5969,10 @@
       <c r="AP38" s="9"/>
     </row>
     <row r="39" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="8"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -6013,10 +6013,10 @@
       <c r="AP39" s="9"/>
     </row>
     <row r="40" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="8"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -6059,10 +6059,10 @@
       <c r="AP40" s="9"/>
     </row>
     <row r="41" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="8"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -6105,10 +6105,10 @@
       <c r="AP41" s="9"/>
     </row>
     <row r="42" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="8"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -6150,10 +6150,10 @@
       <c r="AP42" s="9"/>
     </row>
     <row r="43" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="8"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -6200,10 +6200,10 @@
       <c r="AP43" s="9"/>
     </row>
     <row r="44" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="61"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="8"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -6246,10 +6246,10 @@
       <c r="AP44" s="9"/>
     </row>
     <row r="45" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="8"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -6292,10 +6292,10 @@
       <c r="AP45" s="9"/>
     </row>
     <row r="46" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="8"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -6338,10 +6338,10 @@
       <c r="AP46" s="9"/>
     </row>
     <row r="47" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="8"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -6384,10 +6384,10 @@
       <c r="AP47" s="9"/>
     </row>
     <row r="48" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="8"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -6430,10 +6430,10 @@
       <c r="AP48" s="9"/>
     </row>
     <row r="49" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="8"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -6476,10 +6476,10 @@
       <c r="AP49" s="9"/>
     </row>
     <row r="50" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="8"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -6522,10 +6522,10 @@
       <c r="AP50" s="9"/>
     </row>
     <row r="51" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="8"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -6568,10 +6568,10 @@
       <c r="AP51" s="9"/>
     </row>
     <row r="52" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="8"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -6614,10 +6614,10 @@
       <c r="AP52" s="9"/>
     </row>
     <row r="53" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="61"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="8"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -6676,10 +6676,10 @@
       </c>
     </row>
     <row r="54" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="8"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -6722,10 +6722,10 @@
       <c r="AP54" s="9"/>
     </row>
     <row r="55" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="68"/>
+      <c r="B55" s="77"/>
       <c r="C55" s="12"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -6785,11 +6785,43 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="AI6:AP6"/>
     <mergeCell ref="A8:B8"/>
@@ -6803,43 +6835,11 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:Z6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.62992125984251968" bottom="0.43" header="0.23622047244094491" footer="0.17"/>
@@ -6855,8 +6855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="AF45" sqref="AF45"/>
+    <sheetView topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6868,16 +6868,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:42" ht="23" x14ac:dyDescent="0.25">
@@ -6894,56 +6894,56 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="71" t="s">
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74" t="s">
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="77" t="s">
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="73"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="60"/>
     </row>
     <row r="7" spans="1:42" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
@@ -7072,10 +7072,10 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -7118,10 +7118,10 @@
       <c r="AP8" s="11"/>
     </row>
     <row r="9" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -7164,10 +7164,10 @@
       <c r="AP9" s="9"/>
     </row>
     <row r="10" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -7210,10 +7210,10 @@
       <c r="AP10" s="9"/>
     </row>
     <row r="11" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -7256,10 +7256,10 @@
       <c r="AP11" s="9"/>
     </row>
     <row r="12" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -7302,10 +7302,10 @@
       <c r="AP12" s="9"/>
     </row>
     <row r="13" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -7348,10 +7348,10 @@
       <c r="AP13" s="9"/>
     </row>
     <row r="14" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -7394,10 +7394,10 @@
       <c r="AP14" s="9"/>
     </row>
     <row r="15" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -7440,10 +7440,10 @@
       <c r="AP15" s="9"/>
     </row>
     <row r="16" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -7486,10 +7486,10 @@
       <c r="AP16" s="9"/>
     </row>
     <row r="17" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -7532,10 +7532,10 @@
       <c r="AP17" s="9"/>
     </row>
     <row r="18" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -7578,10 +7578,10 @@
       <c r="AP18" s="9"/>
     </row>
     <row r="19" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -7624,10 +7624,10 @@
       <c r="AP19" s="9"/>
     </row>
     <row r="20" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -7670,10 +7670,10 @@
       <c r="AP20" s="9"/>
     </row>
     <row r="21" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -7716,10 +7716,10 @@
       <c r="AP21" s="9"/>
     </row>
     <row r="22" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -7762,10 +7762,10 @@
       <c r="AP22" s="9"/>
     </row>
     <row r="23" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -7808,10 +7808,10 @@
       <c r="AP23" s="9"/>
     </row>
     <row r="24" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -7854,10 +7854,10 @@
       <c r="AP24" s="9"/>
     </row>
     <row r="25" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="61"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -7900,10 +7900,10 @@
       <c r="AP25" s="9"/>
     </row>
     <row r="26" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -7946,10 +7946,10 @@
       <c r="AP26" s="9"/>
     </row>
     <row r="27" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -7992,10 +7992,10 @@
       <c r="AP27" s="9"/>
     </row>
     <row r="28" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -8038,10 +8038,10 @@
       <c r="AP28" s="9"/>
     </row>
     <row r="29" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -8084,10 +8084,10 @@
       <c r="AP29" s="9"/>
     </row>
     <row r="30" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -8130,10 +8130,10 @@
       <c r="AP30" s="9"/>
     </row>
     <row r="31" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -8176,10 +8176,10 @@
       <c r="AP31" s="9"/>
     </row>
     <row r="32" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="26"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -8222,10 +8222,10 @@
       <c r="AP32" s="9"/>
     </row>
     <row r="33" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="26"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -8268,10 +8268,10 @@
       <c r="AP33" s="9"/>
     </row>
     <row r="34" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -8314,10 +8314,10 @@
       <c r="AP34" s="9"/>
     </row>
     <row r="35" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="26"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -8360,10 +8360,10 @@
       <c r="AP35" s="9"/>
     </row>
     <row r="36" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="26"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -8406,10 +8406,10 @@
       <c r="AP36" s="9"/>
     </row>
     <row r="37" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="26"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -8452,10 +8452,10 @@
       <c r="AP37" s="9"/>
     </row>
     <row r="38" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="26"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -8498,10 +8498,10 @@
       <c r="AP38" s="9"/>
     </row>
     <row r="39" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -8543,10 +8543,10 @@
       <c r="AP39" s="9"/>
     </row>
     <row r="40" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
@@ -8589,10 +8589,10 @@
       <c r="AP40" s="9"/>
     </row>
     <row r="41" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -8634,10 +8634,10 @@
       <c r="AP41" s="9"/>
     </row>
     <row r="42" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="26"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -8679,10 +8679,10 @@
       <c r="AP42" s="9"/>
     </row>
     <row r="43" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="26"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -8725,10 +8725,10 @@
       <c r="AP43" s="9"/>
     </row>
     <row r="44" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="61"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="26"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
@@ -8777,10 +8777,10 @@
       <c r="AP44" s="9"/>
     </row>
     <row r="45" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -8827,10 +8827,10 @@
       <c r="AP45" s="9"/>
     </row>
     <row r="46" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
@@ -8885,10 +8885,10 @@
       <c r="AP46" s="9"/>
     </row>
     <row r="47" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -8935,10 +8935,10 @@
       <c r="AP47" s="9"/>
     </row>
     <row r="48" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
@@ -8981,10 +8981,10 @@
       <c r="AP48" s="9"/>
     </row>
     <row r="49" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="26"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -9027,10 +9027,10 @@
       <c r="AP49" s="9"/>
     </row>
     <row r="50" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="26"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -9073,10 +9073,10 @@
       <c r="AP50" s="9"/>
     </row>
     <row r="51" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="26"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -9119,10 +9119,10 @@
       <c r="AP51" s="9"/>
     </row>
     <row r="52" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -9165,10 +9165,10 @@
       <c r="AP52" s="9"/>
     </row>
     <row r="53" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="61"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -9211,10 +9211,10 @@
       <c r="AP53" s="53"/>
     </row>
     <row r="54" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
@@ -9257,10 +9257,10 @@
       <c r="AP54" s="9"/>
     </row>
     <row r="55" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="68"/>
+      <c r="B55" s="77"/>
       <c r="C55" s="29"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
@@ -9304,11 +9304,43 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="AI6:AP6"/>
     <mergeCell ref="A8:B8"/>
@@ -9322,43 +9354,11 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:Z6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.62992125984251968" bottom="0.43" header="0.23622047244094491" footer="0.17"/>
@@ -9374,8 +9374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9387,16 +9387,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:42" ht="23" x14ac:dyDescent="0.25">
@@ -9413,56 +9413,56 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="71" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="71" t="s">
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74" t="s">
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="77" t="s">
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="73"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="60"/>
     </row>
     <row r="7" spans="1:42" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
@@ -9591,10 +9591,10 @@
       </c>
     </row>
     <row r="8" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -9637,10 +9637,10 @@
       <c r="AP8" s="25"/>
     </row>
     <row r="9" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -9683,10 +9683,10 @@
       <c r="AP9" s="28"/>
     </row>
     <row r="10" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -9729,10 +9729,10 @@
       <c r="AP10" s="28"/>
     </row>
     <row r="11" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -9775,10 +9775,10 @@
       <c r="AP11" s="28"/>
     </row>
     <row r="12" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -9821,10 +9821,10 @@
       <c r="AP12" s="28"/>
     </row>
     <row r="13" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -9867,10 +9867,10 @@
       <c r="AP13" s="28"/>
     </row>
     <row r="14" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -9913,10 +9913,10 @@
       <c r="AP14" s="28"/>
     </row>
     <row r="15" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -9959,10 +9959,10 @@
       <c r="AP15" s="28"/>
     </row>
     <row r="16" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -10005,10 +10005,10 @@
       <c r="AP16" s="28"/>
     </row>
     <row r="17" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -10051,10 +10051,10 @@
       <c r="AP17" s="28"/>
     </row>
     <row r="18" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -10097,10 +10097,10 @@
       <c r="AP18" s="28"/>
     </row>
     <row r="19" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -10143,10 +10143,10 @@
       <c r="AP19" s="28"/>
     </row>
     <row r="20" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="8"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -10189,10 +10189,10 @@
       <c r="AP20" s="28"/>
     </row>
     <row r="21" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -10235,10 +10235,10 @@
       <c r="AP21" s="28"/>
     </row>
     <row r="22" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -10281,10 +10281,10 @@
       <c r="AP22" s="28"/>
     </row>
     <row r="23" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="8"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -10327,10 +10327,10 @@
       <c r="AP23" s="28"/>
     </row>
     <row r="24" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="8"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -10373,10 +10373,10 @@
       <c r="AP24" s="28"/>
     </row>
     <row r="25" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="61"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -10419,10 +10419,10 @@
       <c r="AP25" s="28"/>
     </row>
     <row r="26" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="8"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -10465,10 +10465,10 @@
       <c r="AP26" s="28"/>
     </row>
     <row r="27" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="8"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -10511,10 +10511,10 @@
       <c r="AP27" s="28"/>
     </row>
     <row r="28" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -10557,10 +10557,10 @@
       <c r="AP28" s="28"/>
     </row>
     <row r="29" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="8"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -10603,10 +10603,10 @@
       <c r="AP29" s="28"/>
     </row>
     <row r="30" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="8"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -10649,10 +10649,10 @@
       <c r="AP30" s="28"/>
     </row>
     <row r="31" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="8"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -10695,10 +10695,10 @@
       <c r="AP31" s="28"/>
     </row>
     <row r="32" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="8"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -10741,10 +10741,10 @@
       <c r="AP32" s="28"/>
     </row>
     <row r="33" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="8"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -10787,10 +10787,10 @@
       <c r="AP33" s="28"/>
     </row>
     <row r="34" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -10833,10 +10833,10 @@
       <c r="AP34" s="28"/>
     </row>
     <row r="35" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="8"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -10879,10 +10879,10 @@
       <c r="AP35" s="28"/>
     </row>
     <row r="36" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="8"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -10925,10 +10925,10 @@
       <c r="AP36" s="28"/>
     </row>
     <row r="37" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="8"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -10971,10 +10971,10 @@
       <c r="AP37" s="28"/>
     </row>
     <row r="38" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="8"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -11017,10 +11017,10 @@
       <c r="AP38" s="28"/>
     </row>
     <row r="39" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="8"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -11063,10 +11063,10 @@
       <c r="AP39" s="28"/>
     </row>
     <row r="40" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="8"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -11109,10 +11109,10 @@
       <c r="AP40" s="28"/>
     </row>
     <row r="41" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="8"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -11155,10 +11155,10 @@
       <c r="AP41" s="28"/>
     </row>
     <row r="42" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="8"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -11201,10 +11201,10 @@
       <c r="AP42" s="28"/>
     </row>
     <row r="43" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="61"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
@@ -11247,10 +11247,10 @@
       <c r="AP43" s="28"/>
     </row>
     <row r="44" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="8"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -11293,10 +11293,10 @@
       <c r="AP44" s="28"/>
     </row>
     <row r="45" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="8"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -11339,10 +11339,10 @@
       <c r="AP45" s="28"/>
     </row>
     <row r="46" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="8"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -11385,10 +11385,10 @@
       <c r="AP46" s="28"/>
     </row>
     <row r="47" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="5"/>
@@ -11431,10 +11431,10 @@
       <c r="AP47" s="28"/>
     </row>
     <row r="48" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="8"/>
       <c r="D48" s="5"/>
       <c r="E48" s="56" t="s">
@@ -11483,10 +11483,10 @@
       <c r="AP48" s="28"/>
     </row>
     <row r="49" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="8"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
@@ -11528,10 +11528,10 @@
       <c r="AP49" s="28"/>
     </row>
     <row r="50" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="8"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -11574,10 +11574,10 @@
       <c r="AP50" s="28"/>
     </row>
     <row r="51" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="61"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="8"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -11620,10 +11620,10 @@
       <c r="AP51" s="28"/>
     </row>
     <row r="52" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="61"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="8"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -11666,10 +11666,10 @@
       <c r="AP52" s="28"/>
     </row>
     <row r="53" spans="1:42" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="8"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -11712,10 +11712,10 @@
       <c r="AP53" s="28"/>
     </row>
     <row r="54" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="68"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -11759,45 +11759,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="AI6:AP6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
@@ -11813,6 +11774,45 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="AI6:AP6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:Z6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.62992125984251968" bottom="0.43" header="0.23622047244094491" footer="0.17"/>
